--- a/tests/test_excelparser/onto_update_only_classes.xlsx
+++ b/tests/test_excelparser/onto_update_only_classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\flb\projects\Team4.0\EMMOntoPy\tests\test_excelparser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D10D0-1078-452A-B5A4-46C683BE97B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7151D9C-ED0E-4BBB-864A-745B29FF0A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1800" windowWidth="30210" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-2685" windowWidth="38640" windowHeight="23790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Concept</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Comment for test</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/emmo-repo/emmo-repo.github.io/master/versions/1.0.0-beta/emmo-inferred-chemistry2.ttl</t>
-  </si>
-  <si>
     <t>emmo</t>
   </si>
   <si>
@@ -223,13 +220,19 @@
   </si>
   <si>
     <t>Additional ontology annotations can be added. Add the name in the first column using the dcterm namespace. Separate entries with ";"</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/emmo-repo/emmo-repo.github.io/master/versions/1.0.0-beta4/emmo-inferred.ttl</t>
+  </si>
+  <si>
+    <t>SpecialPattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -364,13 +375,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -414,12 +424,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,9 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,15 +477,19 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,162 +795,157 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="28"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="28" t="s">
+    </row>
+    <row r="9" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="28" t="s">
+    </row>
+    <row r="10" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="28" t="s">
+    </row>
+    <row r="11" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="28"/>
+    </row>
+    <row r="12" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="5"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,77 +959,80 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{85EFD210-C177-4421-B2EE-E05889C8F753}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1038,145 +1044,142 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
     </row>

--- a/tests/test_excelparser/onto_update_only_classes.xlsx
+++ b/tests/test_excelparser/onto_update_only_classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\flb\projects\Team4.0\EMMOntoPy\tests\test_excelparser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7151D9C-ED0E-4BBB-864A-745B29FF0A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9AE6A-5517-4B1D-9204-393374EEAF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-2685" windowWidth="38640" windowHeight="23790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47055" yWindow="-5730" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,10 @@
     <t>Additional ontology annotations can be added. Add the name in the first column using the dcterm namespace. Separate entries with ";"</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/emmo-repo/emmo-repo.github.io/master/versions/1.0.0-beta4/emmo-inferred.ttl</t>
-  </si>
-  <si>
     <t>SpecialPattern</t>
+  </si>
+  <si>
+    <t>https://w3id.org/emmo/inferred</t>
   </si>
 </sst>
 </file>
@@ -478,14 +478,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,8 +998,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>66</v>
+      <c r="A3" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
@@ -1044,7 +1044,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1063,16 +1063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="4" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
